--- a/brick_a_bloom_sales_dashboard.xlsx
+++ b/brick_a_bloom_sales_dashboard.xlsx
@@ -2,24 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maca\Downloads\Excel Portfolio\brick_a_bloom_mock_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8C451F-9589-43FF-9D63-F9CE4000559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025771BD-81F4-4761-92CA-E78916B8B366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="1485" windowWidth="17610" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="7" r:id="rId1"/>
     <sheet name="Total Sales" sheetId="4" r:id="rId2"/>
-    <sheet name="Wrapper" sheetId="5" r:id="rId3"/>
-    <sheet name="Ribbon" sheetId="6" r:id="rId4"/>
-    <sheet name="orders" sheetId="1" r:id="rId5"/>
-    <sheet name="customers" sheetId="2" r:id="rId6"/>
-    <sheet name="products" sheetId="3" r:id="rId7"/>
+    <sheet name="Growth Rate" sheetId="9" r:id="rId3"/>
+    <sheet name="Wrapper" sheetId="5" r:id="rId4"/>
+    <sheet name="Ribbon" sheetId="6" r:id="rId5"/>
+    <sheet name="orders" sheetId="1" r:id="rId6"/>
+    <sheet name="customers" sheetId="2" r:id="rId7"/>
+    <sheet name="products" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="NativeTimeline_Order_Date">#N/A</definedName>
@@ -27,12 +28,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -40,7 +41,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
       <x15:timelineCacheRefs>
-        <x15:timelineCacheRef r:id="rId10"/>
+        <x15:timelineCacheRef r:id="rId11"/>
       </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="478">
   <si>
     <t>Order ID</t>
   </si>
@@ -1468,18 +1469,12 @@
     <t>2024</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>Nov</t>
   </si>
   <si>
     <t>Dec</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
     <t>Years (Order Date)</t>
   </si>
   <si>
@@ -1496,6 +1491,9 @@
   </si>
   <si>
     <t>BRICK-A-BLOOM SALES DASHBOARD</t>
+  </si>
+  <si>
+    <t>Oct</t>
   </si>
 </sst>
 </file>
@@ -1503,9 +1501,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="171" formatCode="[$₱-3409]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$₱-3409]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1599,37 +1597,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1672,60 +1720,11 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Pink Timeline" pivot="0" table="0" count="8" xr9:uid="{354C6EDF-371F-40DA-AF5F-485D3ABB58CA}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2605,21 +2604,18 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>Nov</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>Dec</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Jan</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>2024</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2025</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2632,13 +2628,13 @@
                 <c:formatCode>[$₱-3409]#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2280</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2280</c:v>
+                  <c:v>5280</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>760</c:v>
+                  <c:v>6780</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2695,21 +2691,18 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>Nov</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>Dec</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Jan</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>2024</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2025</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2725,10 +2718,10 @@
                   <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3600</c:v>
+                  <c:v>4650</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,21 +2778,18 @@
                 <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>Nov</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>Dec</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Jan</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>2024</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2025</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2812,13 +2802,13 @@
                 <c:formatCode>[$₱-3409]#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>6120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3640</c:v>
+                  <c:v>5420</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>520</c:v>
+                  <c:v>8540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,6 +3238,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3305,6 +3304,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3364,6 +3372,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3424,6 +3441,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3484,6 +3510,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3541,6 +3576,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3605,6 +3649,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3668,6 +3721,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3729,6 +3791,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3792,6 +3863,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3853,6 +3933,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3897,6 +3986,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3944,6 +4042,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -3988,6 +4095,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4034,6 +4150,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4081,6 +4206,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4128,6 +4262,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4172,6 +4315,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4219,6 +4371,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4265,6 +4426,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4309,6 +4479,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4355,6 +4534,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -4399,6 +4587,15 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5035,6 +5232,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -5084,10 +5337,10 @@
             <c:numRef>
               <c:f>Wrapper!$B$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5.1020408163265307E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5137,17 +5390,17 @@
             <c:numRef>
               <c:f>Wrapper!$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0.10204081632653061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{00000001-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5192,17 +5445,17 @@
             <c:numRef>
               <c:f>Wrapper!$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>0.17346938775510204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{00000002-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5248,17 +5501,17 @@
             <c:numRef>
               <c:f>Wrapper!$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8.1632653061224483E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{00000003-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5304,17 +5557,17 @@
             <c:numRef>
               <c:f>Wrapper!$F$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0.12244897959183673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{00000004-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5357,17 +5610,17 @@
             <c:numRef>
               <c:f>Wrapper!$G$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8.1632653061224483E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{00000005-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5413,17 +5666,17 @@
             <c:numRef>
               <c:f>Wrapper!$H$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0408163265306121E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{00000006-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5468,17 +5721,17 @@
             <c:numRef>
               <c:f>Wrapper!$I$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0.10204081632653061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{00000007-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5521,17 +5774,17 @@
             <c:numRef>
               <c:f>Wrapper!$J$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0.10204081632653061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{00000008-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5576,17 +5829,17 @@
             <c:numRef>
               <c:f>Wrapper!$K$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0.11224489795918367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{0000000B-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5629,17 +5882,17 @@
             <c:numRef>
               <c:f>Wrapper!$L$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5.1020408163265307E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-304A-4FE7-BB27-C8FECA800487}"/>
+              <c16:uniqueId val="{0000000C-3594-4A5D-BD7E-96491AF6BC62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5694,7 +5947,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5736,6 +5989,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79107794538842491"/>
+          <c:y val="9.0430382325475622E-2"/>
+          <c:w val="0.18293335202337141"/>
+          <c:h val="0.80363029855746038"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8975,10 +9238,10 @@
             <c:numRef>
               <c:f>Ribbon!$B$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0.11224489795918367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9031,10 +9294,10 @@
             <c:numRef>
               <c:f>Ribbon!$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9084,10 +9347,10 @@
             <c:numRef>
               <c:f>Ribbon!$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0.1326530612244898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9137,10 +9400,10 @@
             <c:numRef>
               <c:f>Ribbon!$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9192,10 +9455,10 @@
             <c:numRef>
               <c:f>Ribbon!$F$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0.11224489795918367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9248,10 +9511,10 @@
             <c:numRef>
               <c:f>Ribbon!$G$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8.1632653061224483E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9301,10 +9564,10 @@
             <c:numRef>
               <c:f>Ribbon!$H$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0816326530612242E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9354,10 +9617,10 @@
             <c:numRef>
               <c:f>Ribbon!$I$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>0.15306122448979592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9407,17 +9670,17 @@
             <c:numRef>
               <c:f>Ribbon!$J$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8.1632653061224483E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-EC42-4538-8ABE-AA5AF6C24E67}"/>
+              <c16:uniqueId val="{00000001-6C2E-49F3-BE2A-DA41DCA0EA25}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9472,7 +9735,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9514,6 +9777,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78753718610831869"/>
+          <c:y val="1.6428574508544153E-2"/>
+          <c:w val="0.1929712819647055"/>
+          <c:h val="0.93095772983834457"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11296,16 +11569,16 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>35615</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>208191</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>85723</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Order Date">
@@ -11323,12 +11596,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Order Date"/>
+              <tsle:timeslicer name="Order Date"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11370,16 +11643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>231912</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>405846</xdr:colOff>
+      <xdr:colOff>415371</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
+      <xdr:rowOff>66672</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -11415,8 +11688,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5748129" y="704022"/>
-              <a:ext cx="2625587" cy="1399761"/>
+              <a:off x="6257925" y="695325"/>
+              <a:ext cx="2082246" cy="1400172"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11576,9 +11849,111 @@
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Order ID" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="101">
+        <s v="BB-00001"/>
+        <s v="BB-00002"/>
+        <s v="BB-00003"/>
+        <s v="BB-00004"/>
+        <s v="BB-00005"/>
+        <s v="BB-00006"/>
+        <s v="BB-00007"/>
+        <s v="BB-00008"/>
+        <s v="BB-00009"/>
+        <s v="BB-00010"/>
+        <s v="BB-00011"/>
+        <s v="BB-00012"/>
+        <s v="BB-00013"/>
+        <s v="BB-00014"/>
+        <s v="BB-00015"/>
+        <s v="BB-00016"/>
+        <s v="BB-00017"/>
+        <s v="BB-00018"/>
+        <s v="BB-00019"/>
+        <s v="BB-00020"/>
+        <s v="BB-00021"/>
+        <s v="BB-00022"/>
+        <s v="BB-00023"/>
+        <s v="BB-00024"/>
+        <s v="BB-00025"/>
+        <s v="BB-00026"/>
+        <s v="BB-00027"/>
+        <s v="BB-00028"/>
+        <s v="BB-00029"/>
+        <s v="BB-00030"/>
+        <s v="BB-00031"/>
+        <s v="BB-00032"/>
+        <s v="BB-00033"/>
+        <s v="BB-00034"/>
+        <s v="BB-00035"/>
+        <s v="BB-00036"/>
+        <s v="BB-00037"/>
+        <s v="BB-00038"/>
+        <s v="BB-00039"/>
+        <s v="BB-00040"/>
+        <s v="BB-00041"/>
+        <s v="BB-00042"/>
+        <s v="BB-00043"/>
+        <s v="BB-00044"/>
+        <s v="BB-00045"/>
+        <s v="BB-00046"/>
+        <s v="BB-00047"/>
+        <s v="BB-00048"/>
+        <s v="BB-00049"/>
+        <s v="BB-00050"/>
+        <s v="BB-00051"/>
+        <s v="BB-00052"/>
+        <s v="BB-00053"/>
+        <s v="BB-00054"/>
+        <s v="BB-00055"/>
+        <s v="BB-00056"/>
+        <s v="BB-00057"/>
+        <s v="BB-00058"/>
+        <s v="BB-00059"/>
+        <s v="BB-00060"/>
+        <s v="BB-00061"/>
+        <s v="BB-00062"/>
+        <s v="BB-00063"/>
+        <s v="BB-00064"/>
+        <s v="BB-00065"/>
+        <s v="BB-00066"/>
+        <s v="BB-00067"/>
+        <s v="BB-00068"/>
+        <s v="BB-00069"/>
+        <s v="BB-00070"/>
+        <s v="BB-00071"/>
+        <s v="BB-00072"/>
+        <s v="BB-00073"/>
+        <s v="BB-00074"/>
+        <s v="BB-00075"/>
+        <s v="BB-00076"/>
+        <s v="BB-00077"/>
+        <s v="BB-00078"/>
+        <s v="BB-00079"/>
+        <s v="BB-00080"/>
+        <s v="BB-00081"/>
+        <s v="BB-00082"/>
+        <s v="BB-00083"/>
+        <s v="BB-00084"/>
+        <s v="BB-00085"/>
+        <s v="BB-00086"/>
+        <s v="BB-00087"/>
+        <s v="BB-00088"/>
+        <s v="BB-00089"/>
+        <s v="BB-00090"/>
+        <s v="BB-00091"/>
+        <s v="BB-00092"/>
+        <s v="BB-00093"/>
+        <s v="BB-00094"/>
+        <s v="BB-00095"/>
+        <s v="BB-00096"/>
+        <s v="BB-00097"/>
+        <s v="BB-00098"/>
+        <s v="BB-00099"/>
+        <s v="BB-00100"/>
+        <s v="BB-00101"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="Order Date" numFmtId="170">
+    <cacheField name="Order Date" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-10-05T12:20:54" maxDate="2025-01-04T00:00:00" count="59">
         <d v="2024-12-25T12:20:54"/>
         <d v="2024-10-17T12:20:54"/>
@@ -11796,8 +12171,17 @@
         <s v="Camel"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Total Price" numFmtId="169">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="380" maxValue="1000"/>
+    <cacheField name="Total Price" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="380" maxValue="1000" count="8">
+        <n v="520"/>
+        <n v="1000"/>
+        <n v="760"/>
+        <n v="380"/>
+        <n v="500"/>
+        <n v="450"/>
+        <n v="700"/>
+        <n v="600"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Days (Order Date)" numFmtId="0" databaseField="0">
       <fieldGroup base="1">
@@ -12218,7 +12602,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="101">
   <r>
-    <s v="BB-00001"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="3 piece"/>
@@ -12228,10 +12612,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00002"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <s v="1 piece"/>
@@ -12241,10 +12625,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1000"/>
+    <x v="1"/>
   </r>
   <r>
-    <s v="BB-00003"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <s v="1 piece"/>
@@ -12254,10 +12638,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="760"/>
+    <x v="2"/>
   </r>
   <r>
-    <s v="BB-00004"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="3"/>
     <s v="1 piece"/>
@@ -12267,10 +12651,10 @@
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00005"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="4"/>
     <s v="1 piece"/>
@@ -12280,10 +12664,10 @@
     <x v="4"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00006"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="5"/>
     <s v="1 piece"/>
@@ -12293,10 +12677,10 @@
     <x v="5"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00007"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="6"/>
     <s v="1 piece"/>
@@ -12306,10 +12690,10 @@
     <x v="6"/>
     <x v="3"/>
     <x v="6"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00008"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="7"/>
     <s v="2 piece"/>
@@ -12319,10 +12703,10 @@
     <x v="7"/>
     <x v="0"/>
     <x v="5"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00009"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="8"/>
     <s v="3 piece"/>
@@ -12332,10 +12716,10 @@
     <x v="2"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00010"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="9"/>
     <s v="1 piece"/>
@@ -12345,10 +12729,10 @@
     <x v="4"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00011"/>
+    <x v="10"/>
     <x v="3"/>
     <x v="10"/>
     <s v="2 piece"/>
@@ -12358,10 +12742,10 @@
     <x v="8"/>
     <x v="5"/>
     <x v="7"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00012"/>
+    <x v="11"/>
     <x v="10"/>
     <x v="3"/>
     <s v="2 piece"/>
@@ -12371,10 +12755,10 @@
     <x v="9"/>
     <x v="4"/>
     <x v="7"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00013"/>
+    <x v="12"/>
     <x v="11"/>
     <x v="11"/>
     <s v="2 piece"/>
@@ -12384,10 +12768,10 @@
     <x v="2"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00014"/>
+    <x v="13"/>
     <x v="12"/>
     <x v="12"/>
     <s v="1 piece"/>
@@ -12397,10 +12781,10 @@
     <x v="4"/>
     <x v="6"/>
     <x v="8"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00015"/>
+    <x v="14"/>
     <x v="13"/>
     <x v="4"/>
     <s v="2 piece"/>
@@ -12410,10 +12794,10 @@
     <x v="10"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00016"/>
+    <x v="15"/>
     <x v="14"/>
     <x v="13"/>
     <s v="2 piece"/>
@@ -12423,10 +12807,10 @@
     <x v="9"/>
     <x v="7"/>
     <x v="3"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00017"/>
+    <x v="16"/>
     <x v="15"/>
     <x v="7"/>
     <s v="2 piece"/>
@@ -12436,10 +12820,10 @@
     <x v="11"/>
     <x v="1"/>
     <x v="5"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00018"/>
+    <x v="17"/>
     <x v="16"/>
     <x v="14"/>
     <s v="1 piece"/>
@@ -12449,10 +12833,10 @@
     <x v="5"/>
     <x v="8"/>
     <x v="7"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00019"/>
+    <x v="18"/>
     <x v="17"/>
     <x v="15"/>
     <s v="1 piece"/>
@@ -12462,10 +12846,10 @@
     <x v="5"/>
     <x v="6"/>
     <x v="8"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00020"/>
+    <x v="19"/>
     <x v="7"/>
     <x v="6"/>
     <s v="3 piece"/>
@@ -12475,10 +12859,10 @@
     <x v="12"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00021"/>
+    <x v="20"/>
     <x v="18"/>
     <x v="16"/>
     <s v="1 piece"/>
@@ -12488,10 +12872,10 @@
     <x v="13"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00022"/>
+    <x v="21"/>
     <x v="19"/>
     <x v="9"/>
     <s v="1 piece"/>
@@ -12501,10 +12885,10 @@
     <x v="14"/>
     <x v="8"/>
     <x v="1"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00023"/>
+    <x v="22"/>
     <x v="20"/>
     <x v="17"/>
     <s v="1 piece"/>
@@ -12514,10 +12898,10 @@
     <x v="15"/>
     <x v="8"/>
     <x v="8"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00024"/>
+    <x v="23"/>
     <x v="21"/>
     <x v="18"/>
     <s v="2 piece"/>
@@ -12527,10 +12911,10 @@
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00025"/>
+    <x v="24"/>
     <x v="3"/>
     <x v="19"/>
     <s v="2 piece"/>
@@ -12540,10 +12924,10 @@
     <x v="16"/>
     <x v="7"/>
     <x v="3"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00026"/>
+    <x v="25"/>
     <x v="22"/>
     <x v="6"/>
     <s v="3 piece"/>
@@ -12553,10 +12937,10 @@
     <x v="17"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00027"/>
+    <x v="26"/>
     <x v="23"/>
     <x v="20"/>
     <s v="1 piece"/>
@@ -12566,10 +12950,10 @@
     <x v="18"/>
     <x v="9"/>
     <x v="3"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00028"/>
+    <x v="27"/>
     <x v="24"/>
     <x v="21"/>
     <s v="2 piece"/>
@@ -12579,10 +12963,10 @@
     <x v="19"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00029"/>
+    <x v="28"/>
     <x v="25"/>
     <x v="22"/>
     <s v="3 piece"/>
@@ -12592,10 +12976,10 @@
     <x v="20"/>
     <x v="2"/>
     <x v="8"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00030"/>
+    <x v="29"/>
     <x v="26"/>
     <x v="23"/>
     <s v="1 piece"/>
@@ -12605,10 +12989,10 @@
     <x v="21"/>
     <x v="5"/>
     <x v="8"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00031"/>
+    <x v="30"/>
     <x v="6"/>
     <x v="24"/>
     <s v="2 piece"/>
@@ -12618,10 +13002,10 @@
     <x v="22"/>
     <x v="9"/>
     <x v="1"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00032"/>
+    <x v="31"/>
     <x v="27"/>
     <x v="25"/>
     <s v="1 piece"/>
@@ -12631,10 +13015,10 @@
     <x v="3"/>
     <x v="5"/>
     <x v="4"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00033"/>
+    <x v="32"/>
     <x v="28"/>
     <x v="6"/>
     <s v="2 piece"/>
@@ -12644,10 +13028,10 @@
     <x v="23"/>
     <x v="1"/>
     <x v="6"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00034"/>
+    <x v="33"/>
     <x v="29"/>
     <x v="3"/>
     <s v="3 piece"/>
@@ -12657,10 +13041,10 @@
     <x v="14"/>
     <x v="5"/>
     <x v="8"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00035"/>
+    <x v="34"/>
     <x v="18"/>
     <x v="14"/>
     <s v="1 piece"/>
@@ -12670,10 +13054,10 @@
     <x v="5"/>
     <x v="10"/>
     <x v="3"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00036"/>
+    <x v="35"/>
     <x v="30"/>
     <x v="22"/>
     <s v="1 piece"/>
@@ -12683,10 +13067,10 @@
     <x v="24"/>
     <x v="9"/>
     <x v="5"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00037"/>
+    <x v="36"/>
     <x v="26"/>
     <x v="16"/>
     <s v="2 piece"/>
@@ -12696,10 +13080,10 @@
     <x v="25"/>
     <x v="2"/>
     <x v="7"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00038"/>
+    <x v="37"/>
     <x v="31"/>
     <x v="26"/>
     <s v="1 piece"/>
@@ -12709,10 +13093,10 @@
     <x v="26"/>
     <x v="7"/>
     <x v="4"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00039"/>
+    <x v="38"/>
     <x v="32"/>
     <x v="27"/>
     <s v="2 piece"/>
@@ -12722,10 +13106,10 @@
     <x v="16"/>
     <x v="0"/>
     <x v="8"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00040"/>
+    <x v="39"/>
     <x v="33"/>
     <x v="28"/>
     <s v="3 piece"/>
@@ -12735,10 +13119,10 @@
     <x v="27"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00041"/>
+    <x v="40"/>
     <x v="17"/>
     <x v="18"/>
     <s v="2 piece"/>
@@ -12748,10 +13132,10 @@
     <x v="8"/>
     <x v="7"/>
     <x v="1"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00042"/>
+    <x v="41"/>
     <x v="21"/>
     <x v="13"/>
     <s v="1 piece"/>
@@ -12761,10 +13145,10 @@
     <x v="10"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00043"/>
+    <x v="42"/>
     <x v="34"/>
     <x v="29"/>
     <s v="3 piece"/>
@@ -12774,10 +13158,10 @@
     <x v="28"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00044"/>
+    <x v="43"/>
     <x v="28"/>
     <x v="25"/>
     <s v="1 piece"/>
@@ -12787,10 +13171,10 @@
     <x v="29"/>
     <x v="8"/>
     <x v="3"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00045"/>
+    <x v="44"/>
     <x v="35"/>
     <x v="30"/>
     <s v="3 piece"/>
@@ -12800,10 +13184,10 @@
     <x v="8"/>
     <x v="3"/>
     <x v="8"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00046"/>
+    <x v="45"/>
     <x v="9"/>
     <x v="18"/>
     <s v="1 piece"/>
@@ -12813,10 +13197,10 @@
     <x v="16"/>
     <x v="10"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00047"/>
+    <x v="46"/>
     <x v="36"/>
     <x v="6"/>
     <s v="2 piece"/>
@@ -12826,10 +13210,10 @@
     <x v="30"/>
     <x v="7"/>
     <x v="6"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00048"/>
+    <x v="47"/>
     <x v="25"/>
     <x v="6"/>
     <s v="3 piece"/>
@@ -12839,10 +13223,10 @@
     <x v="31"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00049"/>
+    <x v="48"/>
     <x v="11"/>
     <x v="8"/>
     <s v="1 piece"/>
@@ -12852,10 +13236,10 @@
     <x v="2"/>
     <x v="1"/>
     <x v="7"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00050"/>
+    <x v="49"/>
     <x v="4"/>
     <x v="12"/>
     <s v="2 piece"/>
@@ -12865,10 +13249,10 @@
     <x v="8"/>
     <x v="9"/>
     <x v="7"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00051"/>
+    <x v="50"/>
     <x v="25"/>
     <x v="31"/>
     <s v="1 piece"/>
@@ -12878,10 +13262,10 @@
     <x v="32"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00052"/>
+    <x v="51"/>
     <x v="37"/>
     <x v="24"/>
     <s v="3 piece"/>
@@ -12891,10 +13275,10 @@
     <x v="33"/>
     <x v="3"/>
     <x v="7"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00053"/>
+    <x v="52"/>
     <x v="1"/>
     <x v="3"/>
     <s v="3 piece"/>
@@ -12904,10 +13288,10 @@
     <x v="34"/>
     <x v="3"/>
     <x v="8"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00054"/>
+    <x v="53"/>
     <x v="31"/>
     <x v="32"/>
     <s v="3 piece"/>
@@ -12917,10 +13301,10 @@
     <x v="35"/>
     <x v="8"/>
     <x v="7"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00055"/>
+    <x v="54"/>
     <x v="32"/>
     <x v="20"/>
     <s v="3 piece"/>
@@ -12930,10 +13314,10 @@
     <x v="36"/>
     <x v="5"/>
     <x v="3"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00056"/>
+    <x v="55"/>
     <x v="38"/>
     <x v="16"/>
     <s v="1 piece"/>
@@ -12943,10 +13327,10 @@
     <x v="8"/>
     <x v="2"/>
     <x v="5"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00057"/>
+    <x v="56"/>
     <x v="39"/>
     <x v="33"/>
     <s v="1 piece"/>
@@ -12956,10 +13340,10 @@
     <x v="28"/>
     <x v="6"/>
     <x v="8"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00058"/>
+    <x v="57"/>
     <x v="27"/>
     <x v="34"/>
     <s v="2 piece"/>
@@ -12969,10 +13353,10 @@
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00059"/>
+    <x v="58"/>
     <x v="40"/>
     <x v="15"/>
     <s v="2 piece"/>
@@ -12982,10 +13366,10 @@
     <x v="2"/>
     <x v="8"/>
     <x v="0"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00060"/>
+    <x v="59"/>
     <x v="41"/>
     <x v="15"/>
     <s v="2 piece"/>
@@ -12995,10 +13379,10 @@
     <x v="37"/>
     <x v="8"/>
     <x v="2"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00061"/>
+    <x v="60"/>
     <x v="42"/>
     <x v="14"/>
     <s v="1 piece"/>
@@ -13008,10 +13392,10 @@
     <x v="27"/>
     <x v="7"/>
     <x v="4"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00062"/>
+    <x v="61"/>
     <x v="43"/>
     <x v="23"/>
     <s v="3 piece"/>
@@ -13021,10 +13405,10 @@
     <x v="34"/>
     <x v="7"/>
     <x v="4"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00063"/>
+    <x v="62"/>
     <x v="38"/>
     <x v="12"/>
     <s v="1 piece"/>
@@ -13034,10 +13418,10 @@
     <x v="28"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00064"/>
+    <x v="63"/>
     <x v="44"/>
     <x v="13"/>
     <s v="1 piece"/>
@@ -13047,10 +13431,10 @@
     <x v="5"/>
     <x v="8"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00065"/>
+    <x v="64"/>
     <x v="3"/>
     <x v="35"/>
     <s v="1 piece"/>
@@ -13060,10 +13444,10 @@
     <x v="2"/>
     <x v="9"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00066"/>
+    <x v="65"/>
     <x v="44"/>
     <x v="6"/>
     <s v="1 piece"/>
@@ -13073,10 +13457,10 @@
     <x v="30"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00067"/>
+    <x v="66"/>
     <x v="16"/>
     <x v="36"/>
     <s v="1 piece"/>
@@ -13086,10 +13470,10 @@
     <x v="38"/>
     <x v="9"/>
     <x v="3"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00068"/>
+    <x v="67"/>
     <x v="45"/>
     <x v="37"/>
     <s v="1 piece"/>
@@ -13099,10 +13483,10 @@
     <x v="2"/>
     <x v="5"/>
     <x v="2"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00069"/>
+    <x v="68"/>
     <x v="46"/>
     <x v="18"/>
     <s v="3 piece"/>
@@ -13112,10 +13496,10 @@
     <x v="29"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00070"/>
+    <x v="69"/>
     <x v="47"/>
     <x v="0"/>
     <s v="1 piece"/>
@@ -13125,10 +13509,10 @@
     <x v="5"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00071"/>
+    <x v="70"/>
     <x v="48"/>
     <x v="26"/>
     <s v="1 piece"/>
@@ -13138,10 +13522,10 @@
     <x v="39"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00072"/>
+    <x v="71"/>
     <x v="49"/>
     <x v="2"/>
     <s v="3 piece"/>
@@ -13151,10 +13535,10 @@
     <x v="21"/>
     <x v="9"/>
     <x v="5"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00073"/>
+    <x v="72"/>
     <x v="41"/>
     <x v="30"/>
     <s v="3 piece"/>
@@ -13164,10 +13548,10 @@
     <x v="40"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00074"/>
+    <x v="73"/>
     <x v="18"/>
     <x v="38"/>
     <s v="3 piece"/>
@@ -13177,10 +13561,10 @@
     <x v="41"/>
     <x v="8"/>
     <x v="2"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00075"/>
+    <x v="74"/>
     <x v="50"/>
     <x v="8"/>
     <s v="1 piece"/>
@@ -13190,10 +13574,10 @@
     <x v="42"/>
     <x v="3"/>
     <x v="7"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00076"/>
+    <x v="75"/>
     <x v="2"/>
     <x v="22"/>
     <s v="3 piece"/>
@@ -13203,10 +13587,10 @@
     <x v="43"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00077"/>
+    <x v="76"/>
     <x v="5"/>
     <x v="39"/>
     <s v="3 piece"/>
@@ -13216,10 +13600,10 @@
     <x v="1"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00078"/>
+    <x v="77"/>
     <x v="21"/>
     <x v="40"/>
     <s v="3 piece"/>
@@ -13229,10 +13613,10 @@
     <x v="5"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00079"/>
+    <x v="78"/>
     <x v="49"/>
     <x v="22"/>
     <s v="3 piece"/>
@@ -13242,10 +13626,10 @@
     <x v="7"/>
     <x v="9"/>
     <x v="4"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00080"/>
+    <x v="79"/>
     <x v="51"/>
     <x v="4"/>
     <s v="3 piece"/>
@@ -13255,10 +13639,10 @@
     <x v="6"/>
     <x v="1"/>
     <x v="5"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00081"/>
+    <x v="80"/>
     <x v="34"/>
     <x v="39"/>
     <s v="2 piece"/>
@@ -13268,10 +13652,10 @@
     <x v="44"/>
     <x v="0"/>
     <x v="6"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00082"/>
+    <x v="81"/>
     <x v="35"/>
     <x v="19"/>
     <s v="3 piece"/>
@@ -13281,10 +13665,10 @@
     <x v="21"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00083"/>
+    <x v="82"/>
     <x v="52"/>
     <x v="21"/>
     <s v="1 piece"/>
@@ -13294,10 +13678,10 @@
     <x v="45"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00084"/>
+    <x v="83"/>
     <x v="37"/>
     <x v="29"/>
     <s v="2 piece"/>
@@ -13307,10 +13691,10 @@
     <x v="1"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00085"/>
+    <x v="84"/>
     <x v="7"/>
     <x v="30"/>
     <s v="2 piece"/>
@@ -13320,10 +13704,10 @@
     <x v="46"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00086"/>
+    <x v="85"/>
     <x v="16"/>
     <x v="41"/>
     <s v="1 piece"/>
@@ -13333,10 +13717,10 @@
     <x v="47"/>
     <x v="8"/>
     <x v="2"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00087"/>
+    <x v="86"/>
     <x v="15"/>
     <x v="26"/>
     <s v="3 piece"/>
@@ -13346,10 +13730,10 @@
     <x v="48"/>
     <x v="9"/>
     <x v="4"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00088"/>
+    <x v="87"/>
     <x v="8"/>
     <x v="15"/>
     <s v="1 piece"/>
@@ -13359,10 +13743,10 @@
     <x v="49"/>
     <x v="7"/>
     <x v="8"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00089"/>
+    <x v="88"/>
     <x v="47"/>
     <x v="13"/>
     <s v="3 piece"/>
@@ -13372,10 +13756,10 @@
     <x v="50"/>
     <x v="7"/>
     <x v="4"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00090"/>
+    <x v="89"/>
     <x v="44"/>
     <x v="5"/>
     <s v="1 piece"/>
@@ -13385,10 +13769,10 @@
     <x v="51"/>
     <x v="6"/>
     <x v="0"/>
-    <n v="380"/>
+    <x v="3"/>
   </r>
   <r>
-    <s v="BB-00091"/>
+    <x v="90"/>
     <x v="34"/>
     <x v="35"/>
     <s v="2 piece"/>
@@ -13398,10 +13782,10 @@
     <x v="8"/>
     <x v="0"/>
     <x v="8"/>
-    <n v="450"/>
+    <x v="5"/>
   </r>
   <r>
-    <s v="BB-00092"/>
+    <x v="91"/>
     <x v="14"/>
     <x v="32"/>
     <s v="3 piece"/>
@@ -13411,10 +13795,10 @@
     <x v="52"/>
     <x v="8"/>
     <x v="3"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00093"/>
+    <x v="92"/>
     <x v="53"/>
     <x v="32"/>
     <s v="3 piece"/>
@@ -13424,10 +13808,10 @@
     <x v="16"/>
     <x v="6"/>
     <x v="3"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00094"/>
+    <x v="93"/>
     <x v="54"/>
     <x v="36"/>
     <s v="3 piece"/>
@@ -13437,10 +13821,10 @@
     <x v="53"/>
     <x v="3"/>
     <x v="8"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00095"/>
+    <x v="94"/>
     <x v="32"/>
     <x v="33"/>
     <s v="2 piece"/>
@@ -13450,10 +13834,10 @@
     <x v="8"/>
     <x v="5"/>
     <x v="2"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00096"/>
+    <x v="95"/>
     <x v="55"/>
     <x v="36"/>
     <s v="3 piece"/>
@@ -13463,10 +13847,10 @@
     <x v="29"/>
     <x v="7"/>
     <x v="7"/>
-    <n v="700"/>
+    <x v="6"/>
   </r>
   <r>
-    <s v="BB-00097"/>
+    <x v="96"/>
     <x v="53"/>
     <x v="42"/>
     <s v="1 piece"/>
@@ -13476,10 +13860,10 @@
     <x v="5"/>
     <x v="4"/>
     <x v="8"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00098"/>
+    <x v="97"/>
     <x v="56"/>
     <x v="34"/>
     <s v="3 piece"/>
@@ -13489,10 +13873,10 @@
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="520"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="BB-00099"/>
+    <x v="98"/>
     <x v="41"/>
     <x v="11"/>
     <s v="1 piece"/>
@@ -13502,10 +13886,10 @@
     <x v="54"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="4"/>
   </r>
   <r>
-    <s v="BB-00100"/>
+    <x v="99"/>
     <x v="57"/>
     <x v="14"/>
     <s v="2 piece"/>
@@ -13515,10 +13899,10 @@
     <x v="50"/>
     <x v="2"/>
     <x v="7"/>
-    <n v="600"/>
+    <x v="7"/>
   </r>
   <r>
-    <s v="BB-00101"/>
+    <x v="100"/>
     <x v="58"/>
     <x v="43"/>
     <s v="1 piece"/>
@@ -13528,17 +13912,17 @@
     <x v="51"/>
     <x v="3"/>
     <x v="7"/>
-    <n v="760"/>
+    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D2EAD76-F300-4570-9BF5-7F7ED8C995FE}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D2EAD76-F300-4570-9BF5-7F7ED8C995FE}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="170" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <items count="59">
         <item x="11"/>
         <item x="38"/>
@@ -13614,13 +13998,13 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="2">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="169" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
       <items count="368">
         <item x="0"/>
@@ -14027,14 +14411,13 @@
   <rowItems count="3">
     <i>
       <x v="1"/>
+      <x v="10"/>
+    </i>
+    <i r="1">
       <x v="11"/>
     </i>
     <i r="1">
       <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="1"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -14055,7 +14438,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Price" fld="10" baseField="11" baseItem="10" numFmtId="171"/>
+    <dataField name="Sum of Total Price" fld="10" baseField="11" baseItem="10" numFmtId="166"/>
   </dataFields>
   <chartFormats count="3">
     <chartFormat chart="6" format="7" series="1">
@@ -14097,12 +14480,12 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="83" name="Order Date">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="112" name="Order Date">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45597"/>
-            <customFilter operator="lessThanOrEqual" val="45688"/>
+            <customFilter operator="greaterThanOrEqual" val="45566"/>
+            <customFilter operator="lessThanOrEqual" val="45657"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -14125,11 +14508,680 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{271B87D3-EF96-4B34-BEE1-8D77AD7217EB}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="59">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A8904152-13A2-46D2-A30B-1A5D1DDA5B2B}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="59">
+        <item x="11"/>
+        <item x="38"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="44"/>
+        <item x="1"/>
+        <item x="52"/>
+        <item x="47"/>
+        <item x="7"/>
+        <item x="48"/>
+        <item x="42"/>
+        <item x="2"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="32"/>
+        <item x="16"/>
+        <item x="33"/>
+        <item x="37"/>
+        <item x="12"/>
+        <item x="36"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="43"/>
+        <item x="30"/>
+        <item x="22"/>
+        <item x="45"/>
+        <item x="5"/>
+        <item x="46"/>
+        <item x="40"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="14"/>
+        <item x="50"/>
+        <item x="6"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="39"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="24"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="3"/>
+        <item x="41"/>
+        <item x="0"/>
+        <item x="53"/>
+        <item x="21"/>
+        <item x="49"/>
+        <item x="10"/>
+        <item x="34"/>
+        <item x="15"/>
+        <item x="58"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="55">
+        <item x="1"/>
+        <item x="30"/>
+        <item x="37"/>
+        <item x="39"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="33"/>
+        <item x="43"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="50"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="41"/>
+        <item x="13"/>
+        <item x="42"/>
+        <item x="14"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="34"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="35"/>
+        <item x="3"/>
+        <item x="48"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="51"/>
+        <item x="8"/>
+        <item x="46"/>
+        <item x="52"/>
+        <item x="32"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="36"/>
+        <item x="28"/>
+        <item x="38"/>
+        <item x="20"/>
+        <item x="47"/>
+        <item x="54"/>
+        <item x="40"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="11"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="368">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="13"/>
+    <field x="12"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="1"/>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Price" fld="10" showDataAs="percentDiff" baseField="12" baseItem="1048828" numFmtId="10"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="5" count="3" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="3">
+    <chartFormat chart="6" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="112" name="Order Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="45566"/>
+            <customFilter operator="lessThanOrEqual" val="45657"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{271B87D3-EF96-4B34-BEE1-8D77AD7217EB}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="63">
   <location ref="A3:L5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="170" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <items count="59">
         <item x="11"/>
         <item x="38"/>
@@ -14330,7 +15382,7 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="169" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
       <items count="368">
         <item x="0"/>
@@ -14772,9 +15824,9 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Wrapper Color" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Wrapper Color" fld="8" subtotal="count" showDataAs="percentOfRow" baseField="8" baseItem="8" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="23">
+  <chartFormats count="24">
     <chartFormat chart="55" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -15048,15 +16100,24 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="58" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="79" name="Order Date">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="108" name="Order Date">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45597"/>
-            <customFilter operator="lessThanOrEqual" val="45688"/>
+            <customFilter operator="greaterThanOrEqual" val="45566"/>
+            <customFilter operator="lessThanOrEqual" val="45657"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -15078,12 +16139,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECAD845E-73A9-4D0E-A1FC-7FA759AF238E}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="61">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECAD845E-73A9-4D0E-A1FC-7FA759AF238E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="61">
   <location ref="A3:J5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="170" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <items count="59">
         <item x="11"/>
         <item x="38"/>
@@ -15296,7 +16357,7 @@
         <item x="1"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="169" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
       <items count="368">
         <item x="0"/>
@@ -15732,7 +16793,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Ribbon Color" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Ribbon Color" fld="9" subtotal="count" showDataAs="percentOfRow" baseField="9" baseItem="5" numFmtId="10"/>
   </dataFields>
   <chartFormats count="18">
     <chartFormat chart="57" format="23" series="1">
@@ -15954,12 +17015,12 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="77" name="Order Date">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="106" name="Order Date">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="45597"/>
-            <customFilter operator="lessThanOrEqual" val="45688"/>
+            <customFilter operator="greaterThanOrEqual" val="45566"/>
+            <customFilter operator="lessThanOrEqual" val="45657"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -15985,12 +17046,13 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Assembled" xr10:uid="{1E9C79AF-7876-48B6-8773-7C8F301393EC}" sourceName="Assembled">
   <pivotTables>
     <pivotTable tabId="4" name="PivotTable1"/>
+    <pivotTable tabId="9" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1989237314">
       <items count="2">
         <i x="0" s="1"/>
-        <i x="1"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -16004,11 +17066,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC412021-3F95-4BF2-BC4E-04564AC79857}" name="Table1" displayName="Table1" ref="A1:K102" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC412021-3F95-4BF2-BC4E-04564AC79857}" name="Table1" displayName="Table1" ref="A1:K102" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:K102" xr:uid="{BC412021-3F95-4BF2-BC4E-04564AC79857}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{613BA3A5-D10F-4EB9-B459-916347E59E5D}" name="Order ID"/>
-    <tableColumn id="2" xr3:uid="{6F832A7E-866C-47E7-8225-16CBA1B3EDFA}" name="Order Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6F832A7E-866C-47E7-8225-16CBA1B3EDFA}" name="Order Date" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{9457BDA2-6C64-4251-81B3-10418C28EB0D}" name="Customer ID"/>
     <tableColumn id="4" xr3:uid="{5BA729E5-8315-42A5-95B6-82F95A4E2678}" name="Product ID"/>
     <tableColumn id="5" xr3:uid="{B4E7DD91-713E-471D-951D-70D7F06F15AD}" name="Quantity"/>
@@ -16017,7 +17079,7 @@
     <tableColumn id="8" xr3:uid="{C66AFEBE-0398-4BB5-B0C1-3E998721CCBE}" name="Flowers"/>
     <tableColumn id="9" xr3:uid="{7776FB7E-F0DB-4C7A-BCB5-46C6CE7110A5}" name="Wrapper Color"/>
     <tableColumn id="10" xr3:uid="{544C3901-A770-4B93-8412-3D77B320DF8E}" name="Ribbon Color"/>
-    <tableColumn id="11" xr3:uid="{81A01C9C-9894-4F0A-9595-06E4D23EA5E0}" name="Total Price" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{81A01C9C-9894-4F0A-9595-06E4D23EA5E0}" name="Total Price" dataDxfId="0">
       <calculatedColumnFormula>IF(
    G2="Yes",
    (VLOOKUP(D2, products!A:D, 3, FALSE) + VLOOKUP(D2, products!A:D, 4, FALSE)) * E2,
@@ -16320,9 +17382,10 @@
     <pivotTable tabId="4" name="PivotTable1"/>
     <pivotTable tabId="6" name="PivotTable1"/>
     <pivotTable tabId="5" name="PivotTable1"/>
+    <pivotTable tabId="9" name="PivotTable1"/>
   </pivotTables>
   <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1989237314" filterType="dateBetween">
-    <selection startDate="2024-11-01T00:00:00" endDate="2025-01-31T00:00:00"/>
+    <selection startDate="2024-10-01T00:00:00" endDate="2024-12-31T00:00:00"/>
     <bounds startDate="2024-01-01T12:20:54" endDate="2027-01-01T00:00:00"/>
   </state>
 </timelineCacheDefinition>
@@ -16330,7 +17393,7 @@
 
 <file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
 <timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <timeline name="Order Date" xr10:uid="{6C4D5EBE-2475-4445-857A-F0C3D3E16F06}" cache="NativeTimeline_Order_Date" caption="Order Date" level="2" selectionLevel="2" scrollPosition="2024-06-17T00:00:00"/>
+  <timeline name="Order Date" xr10:uid="{6C4D5EBE-2475-4445-857A-F0C3D3E16F06}" cache="NativeTimeline_Order_Date" caption="Order Date" level="2" selectionLevel="1" scrollPosition="2024-01-01T00:00:00"/>
 </timelines>
 </file>
 
@@ -16338,123 +17401,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACFE5B6-A672-4F43-A00F-D8F1A9697CD7}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16482,7 +17545,7 @@
   <dimension ref="A3:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16495,7 +17558,7 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
@@ -16503,10 +17566,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
         <v>155</v>
@@ -16526,56 +17589,53 @@
         <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C5" s="10">
-        <v>2280</v>
+        <v>7300</v>
       </c>
       <c r="D5" s="10">
         <v>2250</v>
       </c>
       <c r="E5" s="10">
-        <v>520</v>
+        <v>6120</v>
       </c>
       <c r="F5" s="10">
-        <v>5050</v>
+        <v>15670</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C6" s="10">
-        <v>2280</v>
+        <v>5280</v>
       </c>
       <c r="D6" s="10">
-        <v>3600</v>
+        <v>4650</v>
       </c>
       <c r="E6" s="10">
-        <v>3640</v>
+        <v>5420</v>
       </c>
       <c r="F6" s="10">
-        <v>9520</v>
+        <v>15350</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>469</v>
-      </c>
       <c r="B7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C7" s="10">
-        <v>760</v>
+        <v>6780</v>
       </c>
       <c r="D7" s="10">
-        <v>450</v>
+        <v>6000</v>
       </c>
       <c r="E7" s="10">
-        <v>520</v>
+        <v>8540</v>
       </c>
       <c r="F7" s="10">
-        <v>1730</v>
+        <v>21320</v>
       </c>
     </row>
   </sheetData>
@@ -16585,11 +17645,129 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6183ABD6-3C38-4732-859C-BBDDF7B3B2B8}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13">
+        <v>-0.27671232876712326</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.28409090909090912</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13">
+        <v>-0.11437908496732026</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.57564575645756455</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13">
+        <v>-2.0421186981493301E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.38892508143322474</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B6:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D5FA46-B079-43D9-AC94-F615C8CA46A6}">
   <dimension ref="A3:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16597,14 +17775,12 @@
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -16693,40 +17869,40 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B5" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9">
-        <v>7</v>
-      </c>
-      <c r="F5" s="9">
-        <v>8</v>
-      </c>
-      <c r="G5" s="9">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2</v>
-      </c>
-      <c r="I5" s="9">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9">
-        <v>8</v>
-      </c>
-      <c r="K5" s="9">
-        <v>10</v>
-      </c>
-      <c r="L5" s="9">
-        <v>3</v>
+        <v>474</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5.1020408163265307E-2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.17346938775510204</v>
+      </c>
+      <c r="E5" s="13">
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="G5" s="13">
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.11224489795918367</v>
+      </c>
+      <c r="L5" s="13">
+        <v>5.1020408163265307E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16735,26 +17911,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52068F4F-BB6A-4164-98EE-E3CAC5B39B77}">
   <dimension ref="A3:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
@@ -16838,34 +18010,34 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B5" s="9">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9">
-        <v>7</v>
-      </c>
-      <c r="H5" s="9">
-        <v>4</v>
-      </c>
-      <c r="I5" s="9">
-        <v>14</v>
-      </c>
-      <c r="J5" s="9">
-        <v>3</v>
+        <v>475</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.11224489795918367</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.11224489795918367</v>
+      </c>
+      <c r="G5" s="13">
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>4.0816326530612242E-2</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="J5" s="13">
+        <v>8.1632653061224483E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16874,7 +18046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
@@ -20982,7 +22154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -22335,7 +23507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
